--- a/model/results/mix0_ggpos_h2pos/v_mix.xlsx
+++ b/model/results/mix0_ggpos_h2pos/v_mix.xlsx
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14115063.99032502</v>
+        <v>14100484.54588057</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>25548246.461678</v>
+        <v>22422712.49909297</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1403102.512471655</v>
+        <v>3116187.234693877</v>
       </c>
     </row>
     <row r="5">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3718765.759637186</v>
+        <v>5000000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14115063.99032502</v>
+        <v>14100484.54588057</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>21767012.22131518</v>
+        <v>19922712.49909296</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1403102.512471655</v>
+        <v>3116187.234693877</v>
       </c>
     </row>
     <row r="5">
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.862645149230958e-08</v>
+        <v>2.77068465948105e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>1.862645149230958e-08</v>
+        <v>-2.747957386753777e-08</v>
       </c>
     </row>
     <row r="6">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7500000</v>
+        <v>7499999.999999998</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14115063.99032502</v>
+        <v>14100484.54588059</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>21767012.22131518</v>
+        <v>19922712.49909295</v>
       </c>
     </row>
     <row r="4">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1403102.512471655</v>
+        <v>3116187.234693877</v>
       </c>
     </row>
     <row r="5">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.862645149230958e-08</v>
+        <v>2.77068465948105e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.839917876503685e-08</v>
+        <v>2.77068465948105e-08</v>
       </c>
     </row>
     <row r="6">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7500000</v>
+        <v>7499999.999999998</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14115063.99032503</v>
+        <v>14100484.54588059</v>
       </c>
     </row>
     <row r="3">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>21767012.22131518</v>
+        <v>19922712.49909295</v>
       </c>
     </row>
     <row r="4">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1403102.512471655</v>
+        <v>3116187.234693877</v>
       </c>
     </row>
     <row r="5">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.862645149230958e-08</v>
+        <v>2.77068465948105e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>1.862645149230958e-08</v>
+        <v>2.77068465948105e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14115063.99032503</v>
+        <v>14100484.54588059</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>21767012.22131518</v>
+        <v>19922712.49909295</v>
       </c>
     </row>
     <row r="4">
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1403102.512471655</v>
+        <v>3116187.234693815</v>
       </c>
     </row>
     <row r="5">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.862645149230958e-08</v>
+        <v>2.77068465948105e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>1.862645149230958e-08</v>
+        <v>2.77068465948105e-08</v>
       </c>
     </row>
     <row r="6">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14115063.99032502</v>
+        <v>14564596.8606954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>16767012.22131519</v>
+        <v>14580095.55464853</v>
       </c>
     </row>
     <row r="4">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14115063.99032503</v>
+        <v>14564596.8606954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11767012.22131518</v>
+        <v>9580095.554648528</v>
       </c>
     </row>
     <row r="4">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1403102.512471654</v>
+        <v>1403102.512471655</v>
       </c>
     </row>
     <row r="5">
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14115063.99032502</v>
+        <v>14564596.8606954</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6767012.221315182</v>
+        <v>4580095.554648529</v>
       </c>
     </row>
     <row r="4">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1403102.512471654</v>
+        <v>1403102.512471655</v>
       </c>
     </row>
     <row r="5">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7500000</v>
+        <v>7499999.999999998</v>
       </c>
       <c r="C7" t="n">
         <v>15000000</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14115063.99032504</v>
+        <v>14564596.86069541</v>
       </c>
     </row>
     <row r="3">
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1767012.221315137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1403102.512471654</v>
+        <v>1403102.51247165</v>
       </c>
     </row>
     <row r="5">
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.862645149230958e-08</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.862645149230958e-08</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13128650.01360544</v>
+        <v>13128650.01360543</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>20000000</v>
+        <v>19580095.5546485</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14115063.99032503</v>
+        <v>14564596.86069541</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1403102.512471654</v>
+        <v>1403102.51247165</v>
       </c>
     </row>
     <row r="5">
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13128650.01360544</v>
+        <v>13128650.01360543</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>21767012.22131518</v>
+        <v>19580095.55464849</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9354716.518518519</v>
+        <v>9340137.074074075</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10654456.66666666</v>
+        <v>10632587.5</v>
       </c>
     </row>
     <row r="4">
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19032003.1111111</v>
+        <v>18922657.27777777</v>
       </c>
     </row>
     <row r="5">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14115063.99032503</v>
+        <v>14564596.86069541</v>
       </c>
     </row>
     <row r="3">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1403102.512471655</v>
+        <v>1403102.512471654</v>
       </c>
     </row>
     <row r="5">
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.862645149230958e-08</v>
+        <v>500000</v>
       </c>
       <c r="C5" t="n">
-        <v>1.862645149230958e-08</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1847,7 +1847,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>21767012.22131514</v>
+        <v>19580095.55464851</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9354716.518518519</v>
+        <v>9340137.074074075</v>
       </c>
     </row>
     <row r="3">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10654456.66666666</v>
+        <v>10632587.5</v>
       </c>
     </row>
     <row r="4">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19032003.1111111</v>
+        <v>18922657.27777777</v>
       </c>
     </row>
     <row r="5">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9354716.518518519</v>
+        <v>9340137.074074075</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10654456.66666666</v>
+        <v>10632587.5</v>
       </c>
     </row>
     <row r="4">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19032003.1111111</v>
+        <v>18922657.27777777</v>
       </c>
     </row>
     <row r="5">
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13195178.62518518</v>
+        <v>13421333.77037037</v>
       </c>
     </row>
     <row r="3">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6615330.382222218</v>
+        <v>12908590.87777778</v>
       </c>
     </row>
     <row r="4">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>21000052.8</v>
+        <v>16742188.61111111</v>
       </c>
     </row>
     <row r="5">
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13435913.21481481</v>
+        <v>13421333.77037037</v>
       </c>
     </row>
     <row r="3">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12930460.04444444</v>
+        <v>18862618.65555556</v>
       </c>
     </row>
     <row r="4">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>16851534.44444444</v>
+        <v>10788160.83333333</v>
       </c>
     </row>
     <row r="5">
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-8.204651691696861e-10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13435913.21481482</v>
+        <v>13421333.77037037</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>18884487.82222223</v>
+        <v>18862618.65555556</v>
       </c>
     </row>
     <row r="4">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>10897506.66666667</v>
+        <v>10788160.83333333</v>
       </c>
     </row>
     <row r="5">
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>-1.024191982366822e-09</v>
       </c>
     </row>
   </sheetData>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14115063.99032502</v>
+        <v>14100484.54588058</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>23312984.44353741</v>
+        <v>25600281.94353741</v>
       </c>
     </row>
     <row r="4">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>7357130.290249432</v>
+        <v>4938617.790249433</v>
       </c>
     </row>
     <row r="5">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14115063.99032502</v>
+        <v>14100484.54588057</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>29267012.22131519</v>
+        <v>27422712.49909297</v>
       </c>
     </row>
     <row r="4">
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1403102.512471657</v>
+        <v>3116187.234693878</v>
       </c>
     </row>
     <row r="5">
